--- a/miner/miner-server/src/main/resources/templates/templates.xlsx
+++ b/miner/miner-server/src/main/resources/templates/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\鲍洪建\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04770B6-08BF-4B85-B10E-DC2902E63F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B3AE60-9C75-45FD-BDEC-4F8A8815016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>消息ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,19 +146,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.method}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.money}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{income}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{pay}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{startDate} 至 {endDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in.method}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pay.method}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{in.money}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pay.money}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,16 +265,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +560,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -567,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -593,7 +601,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -617,21 +625,21 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
@@ -639,37 +647,37 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
